--- a/biology/Botanique/Schismus/Schismus.xlsx
+++ b/biology/Botanique/Schismus/Schismus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schismus  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae[2], originaire d'Afrique et d'Eurasie, qui comprend cinq espèces.
-Ce sont des plantes herbacées annuelles, rarement vivaces, aux tiges pouvant atteindre 40 cm de haut, à inflorescence paniculée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schismus  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae, originaire d'Afrique et d'Eurasie, qui comprend cinq espèces.
+Ce sont des plantes herbacées annuelles, rarement vivaces, aux tiges pouvant atteindre 40 cm de haut, à inflorescence paniculée.
 Ces plantes xérophytes préfèrent les habitats ouverts. Ce sont souvent des mauvaises herbes des cultures, certaines espèces sont utilisées comme plantes fourragères. 
 Étymologie
-le nom générique « Schismus » dérive du grec ancien  σχίσμα, schisma (fente, déchirure), en référence à l'extrémité de la lemme[3].
+le nom générique « Schismus » dérive du grec ancien  σχίσμα, schisma (fente, déchirure), en référence à l'extrémité de la lemme.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (8 mai 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (8 mai 2017) :
 Electra Panz.
 Hemisacris Steud.
 Karroochloa Conert &amp; Türpe</t>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 mai 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 mai 2017) :
 Schismus arabicus Nees (1841)
 Schismus barbatus (L.) Thell., Bull. Herb. Boissier, sér. 2 (1907)
 Schismus inermis (Stapf) C.E.Hubb. (1937)
